--- a/assets/template/matakuliah_template.xlsx
+++ b/assets/template/matakuliah_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662BBC09-556D-40F3-9B5E-F26BFCA89EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED8341-B2B1-458A-B402-61D435FDC5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3314A302-69EF-4FCF-A87A-DB7838D2B0CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Kode MK</t>
   </si>
@@ -68,9 +68,6 @@
   <si>
     <t>IF 
 (SKS)</t>
-  </si>
-  <si>
-    <t>Prasyarat (with ',')</t>
   </si>
 </sst>
 </file>
@@ -436,19 +433,18 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" customWidth="1"/>
+    <col min="3" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,32 +456,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/template/matakuliah_template.xlsx
+++ b/assets/template/matakuliah_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED8341-B2B1-458A-B402-61D435FDC5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECC60B-B2A5-4BA9-8AD0-25DA45299499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3314A302-69EF-4FCF-A87A-DB7838D2B0CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kode MK</t>
   </si>
@@ -68,6 +68,15 @@
   <si>
     <t>IF 
 (SKS)</t>
+  </si>
+  <si>
+    <t>TF4XXX</t>
+  </si>
+  <si>
+    <t>Xxxx</t>
+  </si>
+  <si>
+    <t>Min C</t>
   </si>
 </sst>
 </file>
@@ -430,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F492FF3-5F1C-4052-A7FA-AA47E5454B91}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
@@ -481,6 +490,38 @@
       </c>
       <c r="K1" s="1"/>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
